--- a/WHO-DATA-SETS/ExcelDataSets/20200121-sitrep-1-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200121-sitrep-1-2019-ncov.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA79CDF2-1690-40C3-A50A-E9B56F46ED34}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D2347-F121-4509-A051-97678A9A3A69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -190,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -208,12 +208,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -319,16 +313,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -338,41 +326,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="7" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="7" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="9" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -389,69 +368,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>257556</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1829435" cy="9525"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="1829435" cy="9525"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="1829435" h="9525">
-              <a:moveTo>
-                <a:pt x="1829054" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="0" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="9143"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1829054" y="9143"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="1829054" y="0"/>
-              </a:lnTo>
-              <a:close/>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -774,156 +690,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F7D5-8EA3-43C4-88B4-5496BFB842DF}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="209.45" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="5.25" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>258</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="33" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="12"/>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8">
-        <v>258</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="10">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="27.6" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="9" spans="1:3" ht="45">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
         <v>282</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="335.25" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="84" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:4" ht="23.1" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WHO-DATA-SETS/ExcelDataSets/20200121-sitrep-1-2019-ncov.xlsx
+++ b/WHO-DATA-SETS/ExcelDataSets/20200121-sitrep-1-2019-ncov.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunsl_000\Desktop\COVID-19 By Country\COVID-19-By-Country\WHO-DATA-SETS\ExcelDataSets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827D2347-F121-4509-A051-97678A9A3A69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C269C4F-6F6E-4731-8D5A-230F35A9549F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="3675" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -225,7 +225,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
         <fgColor rgb="FFDBE4F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -317,41 +323,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="7" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6" shrinkToFit="1"/>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -694,7 +700,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -705,13 +711,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -719,75 +725,75 @@
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="8">
         <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
       <c r="A3" s="12"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
       <c r="A4" s="12"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
       <c r="A5" s="12"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="12"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="12"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="4">
         <v>282</v>
       </c>
     </row>
@@ -796,5 +802,6 @@
     <mergeCell ref="A2:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>